--- a/MetodosNumericos Lab2.xlsx
+++ b/MetodosNumericos Lab2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCBB-22\Desktop\MetodosNum-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deis rivas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88016CC-7FE7-4EBD-B7D9-51D932BEF1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 1 Lab2" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="Euler">'Ejercicio 1 Lab2'!$F$12</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
   <si>
     <t>Iteracion</t>
   </si>
@@ -70,16 +69,31 @@
   <si>
     <t>Ecuacion</t>
   </si>
+  <si>
+    <t>Metodo de Newton Raphson</t>
+  </si>
+  <si>
+    <t>Iteriacion</t>
+  </si>
+  <si>
+    <t>f(xi)</t>
+  </si>
+  <si>
+    <t>f'(xi)</t>
+  </si>
+  <si>
+    <t>xi+1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000000%"/>
-    <numFmt numFmtId="169" formatCode="0.0000000%"/>
+    <numFmt numFmtId="164" formatCode="0.000000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +123,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +163,12 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -166,12 +194,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -181,16 +209,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -199,6 +233,24 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000000%"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -213,28 +265,8 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="0.0000000%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -259,14 +291,14 @@
       <xdr:rowOff>50705</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2590800" cy="497252"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB08717-1885-4AE9-AF2D-E03364E99E20}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABB08717-1885-4AE9-AF2D-E03364E99E20}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -302,6 +334,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -311,7 +344,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-NI" sz="1600">
+                          <a:rPr lang="es-NI" sz="1600" i="1">
                             <a:solidFill>
                               <a:srgbClr val="836967"/>
                             </a:solidFill>
@@ -400,7 +433,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -414,7 +447,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -474,7 +507,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -489,7 +522,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -502,7 +535,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -516,7 +549,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -528,7 +561,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -658,7 +691,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -672,7 +705,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -687,7 +720,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -700,7 +733,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -714,7 +747,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -734,7 +767,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1116,8 +1149,137 @@
       <xdr:rowOff>75080</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1626727" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CuadroTexto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E6E4C3F-793D-4EB8-B3FF-F0ACA7A67982}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9017374" y="456080"/>
+              <a:ext cx="1626727" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -1159,6 +1321,72 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓(𝑥)= 𝑒^(−𝑥)−𝑥</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1626727" cy="281808"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CuadroTexto 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E6E4C3F-793D-4EB8-B3FF-F0ACA7A67982}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6600825" y="2838450"/>
+              <a:ext cx="1626727" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1248,10 +1476,10 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="CuadroTexto 2">
+            <xdr:cNvPr id="4" name="CuadroTexto 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6E4C3F-793D-4EB8-B3FF-F0ACA7A67982}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" id="{8E6E4C3F-793D-4EB8-B3FF-F0ACA7A67982}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1259,7 +1487,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9017374" y="456080"/>
+              <a:off x="6600825" y="2838450"/>
               <a:ext cx="1626727" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1287,6 +1515,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-ES" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1294,6 +1523,466 @@
                 <a:t>𝑓(𝑥)= 𝑒^(−𝑥)−𝑥</a:t>
               </a:r>
               <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1666930" cy="533223"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="CuadroTexto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E6E4C3F-793D-4EB8-B3FF-F0ACA7A67982}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6543675" y="3171825"/>
+              <a:ext cx="1666930" cy="533223"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-NI" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-NI" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑒</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="es-NI" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-NI" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-NI" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑒</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="es-NI" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="CuadroTexto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" id="{8E6E4C3F-793D-4EB8-B3FF-F0ACA7A67982}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6543675" y="3171825"/>
+              <a:ext cx="1666930" cy="533223"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^′</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1+𝑒^𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑒^𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="923925" cy="250453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="CuadroTexto 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E6E4C3F-793D-4EB8-B3FF-F0ACA7A67982}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6496049" y="3962400"/>
+              <a:ext cx="923925" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1600" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=1</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="CuadroTexto 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" id="{8E6E4C3F-793D-4EB8-B3FF-F0ACA7A67982}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6496049" y="3962400"/>
+              <a:ext cx="923925" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑋_0=1</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1600"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1314,14 +2003,14 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2590800" cy="497252"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA42F8E-C145-47E4-89FD-12AFFAA31258}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEA42F8E-C145-47E4-89FD-12AFFAA31258}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1357,6 +2046,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1366,7 +2056,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-NI" sz="1600">
+                          <a:rPr lang="es-NI" sz="1600" i="1">
                             <a:solidFill>
                               <a:srgbClr val="836967"/>
                             </a:solidFill>
@@ -1455,7 +2145,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1469,7 +2159,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1529,7 +2219,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1544,7 +2234,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1557,7 +2247,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1571,7 +2261,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1583,7 +2273,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1713,7 +2403,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1727,7 +2417,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1742,7 +2432,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1755,7 +2445,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1769,7 +2459,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1789,7 +2479,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -2171,8 +2861,110 @@
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1262525" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CuadroTexto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F86663FA-1AE7-479A-BD65-9FF827D65C4D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6534150" y="1509712"/>
+              <a:ext cx="1262525" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1800" b="0"/>
+                <a:t>f</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝐼𝑛</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑋</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -2187,6 +2979,75 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6534150" y="1509712"/>
+              <a:ext cx="1262525" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1800" b="0"/>
+                <a:t>f</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝑥)=𝐼𝑛(𝑋)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1262525" cy="281808"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CuadroTexto 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F86663FA-1AE7-479A-BD65-9FF827D65C4D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6800850" y="2295525"/>
               <a:ext cx="1262525" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2277,10 +3138,10 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="CuadroTexto 2">
+            <xdr:cNvPr id="4" name="CuadroTexto 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86663FA-1AE7-479A-BD65-9FF827D65C4D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" id="{F86663FA-1AE7-479A-BD65-9FF827D65C4D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2288,7 +3149,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6534150" y="1509712"/>
+              <a:off x="6800850" y="2295525"/>
               <a:ext cx="1262525" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2325,6 +3186,196 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>(𝑥)=𝐼𝑛(𝑋)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="863185" cy="391133"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F86663FA-1AE7-479A-BD65-9FF827D65C4D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6819900" y="2657475"/>
+              <a:ext cx="863185" cy="391133"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1800" b="0"/>
+                <a:t>f'</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="es-ES" sz="1800" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="es-NI" sz="1800" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="es-NI" sz="1800" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" id="{F86663FA-1AE7-479A-BD65-9FF827D65C4D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6819900" y="2657475"/>
+              <a:ext cx="863185" cy="391133"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1800" b="0"/>
+                <a:t>f'</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝑥)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑋</a:t>
               </a:r>
               <a:endParaRPr lang="es-NI" sz="1800"/>
             </a:p>
@@ -2347,14 +3398,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2590800" cy="497252"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB371E8F-4564-4D39-879E-DA1E5862B9CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB371E8F-4564-4D39-879E-DA1E5862B9CE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2390,6 +3441,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2399,7 +3451,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-NI" sz="1600">
+                          <a:rPr lang="es-NI" sz="1600" i="1">
                             <a:solidFill>
                               <a:srgbClr val="836967"/>
                             </a:solidFill>
@@ -2488,7 +3540,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2502,7 +3554,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2562,7 +3614,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2577,7 +3629,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2590,7 +3642,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2604,7 +3656,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2616,7 +3668,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2746,7 +3798,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2760,7 +3812,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2775,7 +3827,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2788,7 +3840,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2802,7 +3854,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2822,7 +3874,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -3204,8 +4256,156 @@
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1785232" cy="461024"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CuadroTexto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A9D1AAA-7491-4093-A02E-F4C239595B68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7048500" y="2662237"/>
+              <a:ext cx="1785232" cy="461024"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑐𝑜𝑠𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> −</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -3247,6 +4447,72 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓(𝑥)=1/2 𝑐𝑜𝑠𝑥 −𝑥^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1785232" cy="461024"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CuadroTexto 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A9D1AAA-7491-4093-A02E-F4C239595B68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7162800" y="3790950"/>
+              <a:ext cx="1785232" cy="461024"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3355,10 +4621,10 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="CuadroTexto 2">
+            <xdr:cNvPr id="4" name="CuadroTexto 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9D1AAA-7491-4093-A02E-F4C239595B68}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" id="{8A9D1AAA-7491-4093-A02E-F4C239595B68}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3366,7 +4632,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7048500" y="2662237"/>
+              <a:off x="7162800" y="3790950"/>
               <a:ext cx="1785232" cy="461024"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3394,11 +4660,307 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-ES" sz="1600" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑓(𝑥)=1/2 𝑐𝑜𝑠𝑥 −𝑥^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1924309" cy="467436"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A9D1AAA-7491-4093-A02E-F4C239595B68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6943725" y="4400550"/>
+              <a:ext cx="1924309" cy="467436"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="es-NI" sz="1600" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>sin</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>⁡(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" id="{8A9D1AAA-7491-4093-A02E-F4C239595B68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6943725" y="4400550"/>
+              <a:ext cx="1924309" cy="467436"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^′</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>sin⁡(𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/2−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2𝑥</a:t>
               </a:r>
               <a:endParaRPr lang="es-NI" sz="1100"/>
             </a:p>
@@ -3412,26 +4974,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BE108EE-83C0-4CA7-82AF-703973103B0B}" name="Tabla1" displayName="Tabla1" ref="A1:G8" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G8" xr:uid="{6BE108EE-83C0-4CA7-82AF-703973103B0B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G8" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C352743B-7C1D-4A51-8B9C-17D3B8C93323}" name="Iteracion"/>
-    <tableColumn id="2" xr3:uid="{30AE7B7D-C869-4001-9788-572651D71F0B}" name="Xi-1">
+    <tableColumn id="1" name="Iteracion"/>
+    <tableColumn id="2" name="Xi-1">
       <calculatedColumnFormula>C1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E617CA7F-E68B-4FF3-B09D-5B39E97D43A4}" name="Xi">
+    <tableColumn id="3" name="Xi">
       <calculatedColumnFormula>F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{38D4991F-838E-4B5D-B055-801A8ABAB6B1}" name="f(Xi-1)">
+    <tableColumn id="4" name="f(Xi-1)">
       <calculatedColumnFormula>Euler^-B2-B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B5B16010-5CD6-4D9A-9460-16164F6F9679}" name="f(Xi)">
+    <tableColumn id="5" name="f(Xi)">
       <calculatedColumnFormula>Euler^-C2-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{578503F4-EFA7-4D9D-886B-3B6BA59C20C8}" name="Xi+1">
+    <tableColumn id="6" name="Xi+1">
       <calculatedColumnFormula>C2-(E2*(B2-C2))/(D2-E2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{27C41F6C-C39B-4AF9-B483-387CA534354C}" name="Er%" dataDxfId="1" dataCellStyle="Porcentaje">
+    <tableColumn id="7" name="Er%" dataDxfId="0" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((C2-C1)/C2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3701,11 +5263,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3753,11 +5315,11 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f>Euler^-B2-B2</f>
+        <f t="shared" ref="D2:E8" si="0">Euler^-B2-B2</f>
         <v>1</v>
       </c>
       <c r="E2">
-        <f>Euler^-C2-C2</f>
+        <f t="shared" si="0"/>
         <v>-0.63212055882855767</v>
       </c>
       <c r="F2">
@@ -3784,11 +5346,11 @@
         <v>0.61269983678028206</v>
       </c>
       <c r="D3">
-        <f>Euler^-B3-B3</f>
+        <f t="shared" si="0"/>
         <v>-0.63212055882855767</v>
       </c>
       <c r="E3">
-        <f>Euler^-C3-C3</f>
+        <f t="shared" si="0"/>
         <v>-7.0813947873170968E-2</v>
       </c>
       <c r="F3">
@@ -3805,27 +5367,27 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B12" si="0">C3</f>
+        <f t="shared" ref="B4:B8" si="1">C3</f>
         <v>0.61269983678028206</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C12" si="1">F3</f>
+        <f t="shared" ref="C4:C8" si="2">F3</f>
         <v>0.5638383891610742</v>
       </c>
       <c r="D4">
-        <f>Euler^-B4-B4</f>
+        <f t="shared" si="0"/>
         <v>-7.0813947873170968E-2</v>
       </c>
       <c r="E4">
-        <f>Euler^-C4-C4</f>
+        <f t="shared" si="0"/>
         <v>5.1823545073383936E-3</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F12" si="2">C4-(E4*(B4-C4))/(D4-E4)</f>
+        <f t="shared" ref="F4:F8" si="3">C4-(E4*(B4-C4))/(D4-E4)</f>
         <v>0.56717035841974461</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G12" si="3">ABS((C4-C3)/C4)</f>
+        <f t="shared" ref="G4:G8" si="4">ABS((C4-C3)/C4)</f>
         <v>8.6658603880995042E-2</v>
       </c>
     </row>
@@ -3834,27 +5396,27 @@
         <v>4</v>
       </c>
       <c r="B5">
+        <f t="shared" si="1"/>
+        <v>0.5638383891610742</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>0.56717035841974461</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.5638383891610742</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>0.56717035841974461</v>
-      </c>
-      <c r="D5">
-        <f>Euler^-B5-B5</f>
         <v>5.1823545073383936E-3</v>
       </c>
       <c r="E5">
-        <f>Euler^-C5-C5</f>
+        <f t="shared" si="0"/>
         <v>-4.2419242430091764E-5</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56714330660496326</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8747238976909382E-3</v>
       </c>
     </row>
@@ -3863,27 +5425,27 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <f t="shared" si="1"/>
+        <v>0.56717035841974461</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>0.56714330660496326</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.56717035841974461</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>0.56714330660496326</v>
-      </c>
-      <c r="D6">
-        <f>Euler^-B6-B6</f>
         <v>-4.2419242430091764E-5</v>
       </c>
       <c r="E6">
-        <f>Euler^-C6-C6</f>
+        <f t="shared" si="0"/>
         <v>-2.5380166635002865E-8</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56714329040970457</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7698376171079925E-5</v>
       </c>
     </row>
@@ -3892,27 +5454,27 @@
         <v>6</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>0.56714330660496326</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>0.56714329040970457</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.56714330660496326</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>0.56714329040970457</v>
-      </c>
-      <c r="D7">
-        <f>Euler^-B7-B7</f>
         <v>-2.5380166635002865E-8</v>
       </c>
       <c r="E7">
-        <f>Euler^-C7-C7</f>
+        <f t="shared" si="0"/>
         <v>1.2423395645555502E-13</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56714329040978384</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8555849929879191E-8</v>
       </c>
     </row>
@@ -3921,27 +5483,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56714329040970457</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D8" s="3">
-        <f>Euler^-B8-B8</f>
-        <v>1.2423395645555502E-13</v>
-      </c>
-      <c r="E8" s="5">
-        <f>Euler^-C8-C8</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
         <f t="shared" si="2"/>
         <v>0.56714329040978384</v>
       </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2423395645555502E-13</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.56714329040978384</v>
+      </c>
       <c r="G8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3977054000050053E-13</v>
       </c>
     </row>
@@ -3958,7 +5520,163 @@
       </c>
       <c r="G12" s="1"/>
     </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f xml:space="preserve"> (Euler^-B18)-B18</f>
+        <v>-0.63212055882855767</v>
+      </c>
+      <c r="D18">
+        <f>-((1+Euler^B18)/(Euler^B18))</f>
+        <v>-1.3678794411714423</v>
+      </c>
+      <c r="E18">
+        <f>(B18-C18)/D18</f>
+        <v>-1.1931757358900146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f>E18</f>
+        <v>-1.1931757358900146</v>
+      </c>
+      <c r="C19">
+        <f xml:space="preserve"> (Euler^-B19)-B19</f>
+        <v>4.4907124381948167</v>
+      </c>
+      <c r="D19">
+        <f>-((1+Euler^B19)/(Euler^B19))</f>
+        <v>-4.2975367023048019</v>
+      </c>
+      <c r="E19">
+        <f>(B19-C19)/D19</f>
+        <v>1.3225921191171024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:B24" si="5">E19</f>
+        <v>1.3225921191171024</v>
+      </c>
+      <c r="C20">
+        <f xml:space="preserve"> (Euler^-B20)-B20</f>
+        <v>-1.0561483669973275</v>
+      </c>
+      <c r="D20">
+        <f>-((1+Euler^B20)/(Euler^B20))</f>
+        <v>-1.2664437521197749</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E24" si="6">(B20-C20)/D20</f>
+        <v>-1.8782835654034313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="5"/>
+        <v>-1.8782835654034313</v>
+      </c>
+      <c r="C21">
+        <f xml:space="preserve"> (Euler^-B21)-B21</f>
+        <v>8.420549413396051</v>
+      </c>
+      <c r="D21">
+        <f>-((1+Euler^B21)/(Euler^B21))</f>
+        <v>-7.5422658479926197</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>1.3654826263569753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="5"/>
+        <v>1.3654826263569753</v>
+      </c>
+      <c r="C22">
+        <f xml:space="preserve"> (Euler^-B22)-B22</f>
+        <v>-1.1102251740762952</v>
+      </c>
+      <c r="D22">
+        <f>-((1+Euler^B22)/(Euler^B22))</f>
+        <v>-1.2552574522806801</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>-1.972270944048292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="5"/>
+        <v>-1.972270944048292</v>
+      </c>
+      <c r="C23">
+        <f xml:space="preserve"> (Euler^-B23)-B23</f>
+        <v>9.1592501417523948</v>
+      </c>
+      <c r="D23">
+        <f>-((1+Euler^B23)/(Euler^B23))</f>
+        <v>-8.1869791977041029</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>1.3596615817617235</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:E16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3969,10 +5687,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC86459A-C465-4EA7-BB9C-631F58D3F059}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4068,7 +5788,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9">
-        <f t="shared" ref="B4:B11" si="0">C3</f>
+        <f t="shared" ref="B4:B9" si="0">C3</f>
         <v>0.79528958017339546</v>
       </c>
       <c r="C4" s="9">
@@ -4076,7 +5796,7 @@
         <v>1.0496782617942837</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D9" si="2">LN(B4)</f>
+        <f t="shared" ref="D4" si="2">LN(B4)</f>
         <v>-0.22904897886094885</v>
       </c>
       <c r="E4" s="9">
@@ -4088,7 +5808,7 @@
         <v>1.0052377132162358</v>
       </c>
       <c r="G4" s="10">
-        <f t="shared" ref="G4:G9" si="3">ABS((C4-C3)/C4)</f>
+        <f t="shared" ref="G4" si="3">ABS((C4-C3)/C4)</f>
         <v>0.24234919487238407</v>
       </c>
     </row>
@@ -4101,23 +5821,23 @@
         <v>1.0496782617942837</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" ref="C5:C11" si="4">F4</f>
+        <f t="shared" ref="C5" si="4">F4</f>
         <v>1.0052377132162358</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" ref="D5:D11" si="5">LN(B5)</f>
+        <f t="shared" ref="D5" si="5">LN(B5)</f>
         <v>4.8483699875269612E-2</v>
       </c>
       <c r="E5" s="9">
-        <f t="shared" ref="E5:E11" si="6">LN(C5)</f>
+        <f t="shared" ref="E5" si="6">LN(C5)</f>
         <v>5.2240441055143019E-3</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" ref="F5:F11" si="7">C5-(E5*(B5-C5))/(D5-E5)</f>
+        <f t="shared" ref="F5" si="7">C5-(E5*(B5-C5))/(D5-E5)</f>
         <v>0.99987106427476902</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" ref="G5:G11" si="8">ABS((C5-C4)/C5)</f>
+        <f t="shared" ref="G5" si="8">ABS((C5-C4)/C5)</f>
         <v>4.4208994543053264E-2</v>
       </c>
     </row>
@@ -4130,23 +5850,23 @@
         <v>1.0052377132162358</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" ref="C6:C10" si="9">F5</f>
+        <f t="shared" ref="C6:C9" si="9">F5</f>
         <v>0.99987106427476902</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ref="D6:D10" si="10">LN(B6)</f>
+        <f t="shared" ref="D6:D9" si="10">LN(B6)</f>
         <v>5.2240441055143019E-3</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" ref="E6:E10" si="11">LN(C6)</f>
+        <f t="shared" ref="E6:E9" si="11">LN(C6)</f>
         <v>-1.2894403815616652E-4</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" ref="F6:F10" si="12">C6-(E6*(B6-C6))/(D6-E6)</f>
+        <f t="shared" ref="F6:F9" si="12">C6-(E6*(B6-C6))/(D6-E6)</f>
         <v>1.0000003373774373</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" ref="G6:G10" si="13">ABS((C6-C5)/C6)</f>
+        <f t="shared" ref="G6:G9" si="13">ABS((C6-C5)/C6)</f>
         <v>5.3673409834690327E-3</v>
       </c>
     </row>
@@ -4248,18 +5968,151 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
     </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1.5</v>
+      </c>
+      <c r="C15">
+        <f xml:space="preserve"> LN(B15)</f>
+        <v>0.40546510810816438</v>
+      </c>
+      <c r="D15">
+        <f xml:space="preserve"> 1/B15</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E15">
+        <f>(B15-C15)/D15</f>
+        <v>1.6418023378377535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f>E15</f>
+        <v>1.6418023378377535</v>
+      </c>
+      <c r="C16">
+        <f xml:space="preserve"> LN(B16)</f>
+        <v>0.49579462487897052</v>
+      </c>
+      <c r="D16">
+        <f xml:space="preserve"> 1/B16</f>
+        <v>0.60908671948719206</v>
+      </c>
+      <c r="E16">
+        <f>(B16-C16)/D16</f>
+        <v>1.8815181423158274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B20" si="14">E16</f>
+        <v>1.8815181423158274</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C26" si="15" xml:space="preserve"> LN(B17)</f>
+        <v>0.63207897347939612</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D20" si="16" xml:space="preserve"> 1/B17</f>
+        <v>0.53148570694575969</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E20" si="17">(B17-C17)/D17</f>
+        <v>2.3508424638857535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="14"/>
+        <v>2.3508424638857535</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="15"/>
+        <v>0.85477375918252518</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="16"/>
+        <v>0.42537941838394411</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="17"/>
+        <v>3.5170218399069055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="14"/>
+        <v>3.5170218399069055</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="15"/>
+        <v>1.2576145632840248</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="16"/>
+        <v>0.28433147291074817</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="17"/>
+        <v>7.9463847371272536</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7441162E-746F-4D0B-98FB-A2B93FE03AAA}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4356,7 +6209,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9">
-        <f t="shared" ref="B4:B67" si="0">C3</f>
+        <f t="shared" ref="B4:B17" si="0">C3</f>
         <v>0.40655402588119505</v>
       </c>
       <c r="C4" s="9">
@@ -4760,7 +6613,182 @@
         <v>1.6787305066931889E-2</v>
       </c>
     </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f xml:space="preserve"> (COS(B22)/2)-B22^2</f>
+        <v>-0.72984884706593012</v>
+      </c>
+      <c r="D22">
+        <f>-(SIN(B22)/2)-2*(B22)</f>
+        <v>-2.4207354924039484</v>
+      </c>
+      <c r="E22">
+        <f>(B22-C22)/D22</f>
+        <v>-0.7145963912596156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <f>E22</f>
+        <v>-0.7145963912596156</v>
+      </c>
+      <c r="C23">
+        <f xml:space="preserve"> (COS(B23)/2)-B23^2</f>
+        <v>-0.13296910609039242</v>
+      </c>
+      <c r="D23">
+        <f>-(SIN(B23)/2)-2*(B23)</f>
+        <v>1.756849083055938</v>
+      </c>
+      <c r="E23">
+        <f>(B23-C23)/D23</f>
+        <v>-0.33106274794959395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:B28" si="11">E23</f>
+        <v>-0.33106274794959395</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:C28" si="12" xml:space="preserve"> (COS(B24)/2)-B24^2</f>
+        <v>0.3632461735617824</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D28" si="13">-(SIN(B24)/2)-2*(B24)</f>
+        <v>0.82464962078617055</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E28" si="14">(B24-C24)/D24</f>
+        <v>-0.84194414695718245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="11"/>
+        <v>-0.84194414695718245</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="12"/>
+        <v>-0.37586301175009934</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="13"/>
+        <v>2.0568579727689591</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="14"/>
+        <v>-0.22659859911457128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="11"/>
+        <v>-0.22659859911457128</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="12"/>
+        <v>0.43587117689714544</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="13"/>
+        <v>0.56552938892326998</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="14"/>
+        <v>-1.1714152950972447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="11"/>
+        <v>-1.1714152950972447</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="12"/>
+        <v>-1.1777897134938053</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="13"/>
+        <v>2.8034815177737333</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="14"/>
+        <v>2.2737508188113852E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="11"/>
+        <v>2.2737508188113852E-3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="12"/>
+        <v>0.49999353757207426</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="13"/>
+        <v>-5.6843760674319121E-3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="14"/>
+        <v>87.559264350031427</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A20:E20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
